--- a/dist/document/dest/2020/10/khai/index.xlsx
+++ b/dist/document/dest/2020/10/khai/index.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="36">
   <si>
     <t>Công ty TNHH Dược Phẩm Hoàng Trân</t>
   </si>
@@ -22,10 +22,10 @@
     <t>BẢNG TÍNH TIỀN CHIẾT KHẤU</t>
   </si>
   <si>
-    <t>Bác Sĩ: 8-Lý Thanh Lãm</t>
-  </si>
-  <si>
-    <t>01/09 -&gt; 30/09/2020</t>
+    <t>Bác Sĩ: 8</t>
+  </si>
+  <si>
+    <t>27/10/2020</t>
   </si>
   <si>
     <t>STT</t>
@@ -88,10 +88,13 @@
     <t>Fagendol</t>
   </si>
   <si>
+    <t>Bonzacim</t>
+  </si>
+  <si>
     <t>Tổng cộng</t>
   </si>
   <si>
-    <t>Bác Sĩ: 142-Lý Văn Phái</t>
+    <t>Bác Sĩ: 142</t>
   </si>
   <si>
     <t>Celivite</t>
@@ -103,16 +106,13 @@
     <t>Celevox</t>
   </si>
   <si>
-    <t>Bác Sĩ: 205-Trần Thị Diễm</t>
+    <t>Medi-Levosulpirid</t>
+  </si>
+  <si>
+    <t>Bác Sĩ: 205</t>
   </si>
   <si>
     <t>Lucass 200</t>
-  </si>
-  <si>
-    <t>Aluantine</t>
-  </si>
-  <si>
-    <t>Esotrax</t>
   </si>
   <si>
     <t>Tổng cộng tất cả</t>
@@ -564,7 +564,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:J45"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -677,28 +677,28 @@
         <v>15</v>
       </c>
       <c r="C7" s="10">
-        <v>2007</v>
+        <v>4602</v>
       </c>
       <c r="D7" s="10">
         <v>3600</v>
       </c>
       <c r="E7" s="10">
-        <v>7225200</v>
+        <v>16567200</v>
       </c>
       <c r="F7" s="10">
         <v>35</v>
       </c>
       <c r="G7" s="10">
-        <v>2528820</v>
+        <v>5798520</v>
       </c>
       <c r="H7" s="10">
         <v>25</v>
       </c>
       <c r="I7" s="10">
-        <v>1806300</v>
+        <v>4141800</v>
       </c>
       <c r="J7" s="10">
-        <v>722520</v>
+        <v>1656720</v>
       </c>
     </row>
     <row r="8" ht="16" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -709,28 +709,28 @@
         <v>16</v>
       </c>
       <c r="C8" s="10">
-        <v>0</v>
+        <v>15163</v>
       </c>
       <c r="D8" s="10">
         <v>15000</v>
       </c>
       <c r="E8" s="10">
-        <v>0</v>
+        <v>227445000</v>
       </c>
       <c r="F8" s="10">
         <v>52</v>
       </c>
       <c r="G8" s="10">
-        <v>0</v>
+        <v>118271400</v>
       </c>
       <c r="H8" s="10">
         <v>42</v>
       </c>
       <c r="I8" s="10">
-        <v>0</v>
+        <v>95526900</v>
       </c>
       <c r="J8" s="10">
-        <v>0</v>
+        <v>22744500</v>
       </c>
     </row>
     <row r="9" ht="16" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -741,28 +741,28 @@
         <v>17</v>
       </c>
       <c r="C9" s="10">
-        <v>1575</v>
+        <v>4799</v>
       </c>
       <c r="D9" s="10">
         <v>4000</v>
       </c>
       <c r="E9" s="10">
-        <v>6300000</v>
+        <v>19196000</v>
       </c>
       <c r="F9" s="10">
         <v>45</v>
       </c>
       <c r="G9" s="10">
-        <v>2835000</v>
+        <v>8638200</v>
       </c>
       <c r="H9" s="10">
         <v>35</v>
       </c>
       <c r="I9" s="10">
-        <v>2205000</v>
+        <v>6718600</v>
       </c>
       <c r="J9" s="10">
-        <v>630000</v>
+        <v>1919600</v>
       </c>
     </row>
     <row r="10" ht="16" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -773,28 +773,28 @@
         <v>18</v>
       </c>
       <c r="C10" s="10">
-        <v>300</v>
+        <v>5310</v>
       </c>
       <c r="D10" s="10">
         <v>3300</v>
       </c>
       <c r="E10" s="10">
-        <v>990000</v>
+        <v>17523000</v>
       </c>
       <c r="F10" s="10">
         <v>55</v>
       </c>
       <c r="G10" s="10">
-        <v>544500</v>
+        <v>9637650</v>
       </c>
       <c r="H10" s="10">
         <v>45</v>
       </c>
       <c r="I10" s="10">
-        <v>445500</v>
+        <v>7885350</v>
       </c>
       <c r="J10" s="10">
-        <v>99000</v>
+        <v>1752300</v>
       </c>
     </row>
     <row r="11" ht="16" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -805,28 +805,28 @@
         <v>19</v>
       </c>
       <c r="C11" s="10">
-        <v>702</v>
+        <v>5368</v>
       </c>
       <c r="D11" s="10">
         <v>13000</v>
       </c>
       <c r="E11" s="10">
-        <v>9126000</v>
+        <v>69784000</v>
       </c>
       <c r="F11" s="10">
         <v>55</v>
       </c>
       <c r="G11" s="10">
-        <v>5019300</v>
+        <v>38381200</v>
       </c>
       <c r="H11" s="10">
         <v>45</v>
       </c>
       <c r="I11" s="10">
-        <v>4106700</v>
+        <v>31402800</v>
       </c>
       <c r="J11" s="10">
-        <v>912600</v>
+        <v>6978400</v>
       </c>
     </row>
     <row r="12" ht="16" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -837,28 +837,28 @@
         <v>20</v>
       </c>
       <c r="C12" s="10">
-        <v>0</v>
+        <v>2414</v>
       </c>
       <c r="D12" s="10">
         <v>2900</v>
       </c>
       <c r="E12" s="10">
-        <v>0</v>
+        <v>7000600</v>
       </c>
       <c r="F12" s="10">
         <v>45</v>
       </c>
       <c r="G12" s="10">
-        <v>0</v>
+        <v>3150270</v>
       </c>
       <c r="H12" s="10">
         <v>35</v>
       </c>
       <c r="I12" s="10">
-        <v>0</v>
+        <v>2450210</v>
       </c>
       <c r="J12" s="10">
-        <v>0</v>
+        <v>700060</v>
       </c>
     </row>
     <row r="13" ht="16" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -869,28 +869,28 @@
         <v>21</v>
       </c>
       <c r="C13" s="10">
-        <v>1094</v>
+        <v>11767</v>
       </c>
       <c r="D13" s="10">
         <v>6926</v>
       </c>
       <c r="E13" s="10">
-        <v>7577044</v>
+        <v>81498242</v>
       </c>
       <c r="F13" s="10">
         <v>40</v>
       </c>
       <c r="G13" s="10">
-        <v>3030817.6</v>
+        <v>32599296.8</v>
       </c>
       <c r="H13" s="10">
         <v>30</v>
       </c>
       <c r="I13" s="10">
-        <v>2273113.2</v>
+        <v>24449472.6</v>
       </c>
       <c r="J13" s="10">
-        <v>757704.3999999999</v>
+        <v>8149824.199999999</v>
       </c>
     </row>
     <row r="14" ht="16" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -901,28 +901,28 @@
         <v>22</v>
       </c>
       <c r="C14" s="10">
-        <v>0</v>
+        <v>920</v>
       </c>
       <c r="D14" s="10">
         <v>24000</v>
       </c>
       <c r="E14" s="10">
-        <v>0</v>
+        <v>22080000</v>
       </c>
       <c r="F14" s="10">
         <v>52</v>
       </c>
       <c r="G14" s="10">
-        <v>0</v>
+        <v>11481600</v>
       </c>
       <c r="H14" s="10">
         <v>42</v>
       </c>
       <c r="I14" s="10">
-        <v>0</v>
+        <v>9273600</v>
       </c>
       <c r="J14" s="10">
-        <v>0</v>
+        <v>2208000</v>
       </c>
     </row>
     <row r="15" ht="16" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -933,28 +933,28 @@
         <v>23</v>
       </c>
       <c r="C15" s="10">
-        <v>0</v>
+        <v>2303</v>
       </c>
       <c r="D15" s="10">
         <v>9000</v>
       </c>
       <c r="E15" s="10">
-        <v>0</v>
+        <v>20727000</v>
       </c>
       <c r="F15" s="10">
         <v>55</v>
       </c>
       <c r="G15" s="10">
-        <v>0</v>
+        <v>11399850</v>
       </c>
       <c r="H15" s="10">
         <v>45</v>
       </c>
       <c r="I15" s="10">
-        <v>0</v>
+        <v>9327150</v>
       </c>
       <c r="J15" s="10">
-        <v>0</v>
+        <v>2072700</v>
       </c>
     </row>
     <row r="16" ht="16" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -965,950 +965,790 @@
         <v>24</v>
       </c>
       <c r="C16" s="10">
-        <v>60</v>
+        <v>3229</v>
       </c>
       <c r="D16" s="10">
         <v>2600</v>
       </c>
       <c r="E16" s="10">
-        <v>156000</v>
+        <v>8395400</v>
       </c>
       <c r="F16" s="10">
         <v>50</v>
       </c>
       <c r="G16" s="10">
-        <v>78000</v>
+        <v>4197700</v>
       </c>
       <c r="H16" s="10">
         <v>40</v>
       </c>
       <c r="I16" s="10">
-        <v>62400</v>
+        <v>3358160</v>
       </c>
       <c r="J16" s="10">
-        <v>15600</v>
-      </c>
-    </row>
-    <row r="17" ht="20" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+        <v>839540</v>
+      </c>
+    </row>
+    <row r="17" ht="16" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>11</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="11">
-        <v>5738</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11">
-        <v>31374244</v>
-      </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11">
-        <v>14036437.6</v>
-      </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11">
-        <v>10899013.2</v>
-      </c>
-      <c r="J17" s="11">
-        <v>3137424.4</v>
-      </c>
-    </row>
-    <row r="18" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="16" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="C17" s="10">
+        <v>675</v>
+      </c>
+      <c r="D17" s="10">
+        <v>8900</v>
+      </c>
+      <c r="E17" s="10">
+        <v>6007500</v>
+      </c>
+      <c r="F17" s="10">
+        <v>55</v>
+      </c>
+      <c r="G17" s="10">
+        <v>3304125</v>
+      </c>
+      <c r="H17" s="10">
+        <v>45</v>
+      </c>
+      <c r="I17" s="10">
+        <v>2703375</v>
+      </c>
+      <c r="J17" s="10">
+        <v>600750</v>
+      </c>
+    </row>
+    <row r="18" ht="20" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="12" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="11">
+        <v>56550</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11">
+        <v>496223942</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11">
+        <v>246859811.8</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11">
+        <v>197237417.6</v>
+      </c>
+      <c r="J18" s="11">
+        <v>49622394.2</v>
+      </c>
+    </row>
+    <row r="19" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="16" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" ht="20" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+    <row r="21" ht="20" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C21" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D21" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E21" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F21" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G21" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H21" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="I21" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="J21" s="8" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="21" ht="16" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
-        <v>1</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="10">
-        <v>0</v>
-      </c>
-      <c r="D21" s="10">
-        <v>15000</v>
-      </c>
-      <c r="E21" s="10">
-        <v>0</v>
-      </c>
-      <c r="F21" s="10">
-        <v>52</v>
-      </c>
-      <c r="G21" s="10">
-        <v>0</v>
-      </c>
-      <c r="H21" s="10">
-        <v>42</v>
-      </c>
-      <c r="I21" s="10">
-        <v>0</v>
-      </c>
-      <c r="J21" s="10">
-        <v>0</v>
       </c>
     </row>
     <row r="22" ht="16" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="10">
-        <v>0</v>
+        <v>985</v>
       </c>
       <c r="D22" s="10">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="E22" s="10">
-        <v>0</v>
+        <v>14775000</v>
       </c>
       <c r="F22" s="10">
+        <v>55</v>
+      </c>
+      <c r="G22" s="10">
+        <v>8126250</v>
+      </c>
+      <c r="H22" s="10">
         <v>45</v>
       </c>
-      <c r="G22" s="10">
-        <v>0</v>
-      </c>
-      <c r="H22" s="10">
-        <v>35</v>
-      </c>
       <c r="I22" s="10">
-        <v>0</v>
+        <v>6648750</v>
       </c>
       <c r="J22" s="10">
-        <v>0</v>
+        <v>1477500</v>
       </c>
     </row>
     <row r="23" ht="16" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="10">
-        <v>246</v>
+        <v>548</v>
       </c>
       <c r="D23" s="10">
         <v>13000</v>
       </c>
       <c r="E23" s="10">
-        <v>3198000</v>
+        <v>7124000</v>
       </c>
       <c r="F23" s="10">
         <v>55</v>
       </c>
       <c r="G23" s="10">
-        <v>1758900</v>
+        <v>3918200</v>
       </c>
       <c r="H23" s="10">
         <v>45</v>
       </c>
       <c r="I23" s="10">
-        <v>1439100</v>
+        <v>3205800</v>
       </c>
       <c r="J23" s="10">
-        <v>319800</v>
+        <v>712400</v>
       </c>
     </row>
     <row r="24" ht="16" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C24" s="10">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D24" s="10">
-        <v>2900</v>
+        <v>24000</v>
       </c>
       <c r="E24" s="10">
-        <v>0</v>
+        <v>2880000</v>
       </c>
       <c r="F24" s="10">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G24" s="10">
-        <v>0</v>
+        <v>1497600</v>
       </c>
       <c r="H24" s="10">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="I24" s="10">
-        <v>0</v>
+        <v>1209600</v>
       </c>
       <c r="J24" s="10">
-        <v>0</v>
+        <v>288000</v>
       </c>
     </row>
     <row r="25" ht="16" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C25" s="10">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D25" s="10">
-        <v>24000</v>
+        <v>9000</v>
       </c>
       <c r="E25" s="10">
-        <v>960000</v>
+        <v>495000</v>
       </c>
       <c r="F25" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G25" s="10">
-        <v>499200</v>
+        <v>272250</v>
       </c>
       <c r="H25" s="10">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I25" s="10">
-        <v>403200</v>
+        <v>222750</v>
       </c>
       <c r="J25" s="10">
-        <v>96000</v>
+        <v>49500</v>
       </c>
     </row>
     <row r="26" ht="16" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C26" s="10">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="D26" s="10">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="E26" s="10">
-        <v>0</v>
+        <v>540000</v>
       </c>
       <c r="F26" s="10">
         <v>55</v>
       </c>
       <c r="G26" s="10">
-        <v>0</v>
+        <v>297000</v>
       </c>
       <c r="H26" s="10">
         <v>45</v>
       </c>
       <c r="I26" s="10">
-        <v>0</v>
+        <v>243000</v>
       </c>
       <c r="J26" s="10">
-        <v>0</v>
+        <v>54000</v>
       </c>
     </row>
     <row r="27" ht="16" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C27" s="10">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="D27" s="10">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="E27" s="10">
-        <v>0</v>
+        <v>1890000</v>
       </c>
       <c r="F27" s="10">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G27" s="10">
-        <v>0</v>
+        <v>1020600</v>
       </c>
       <c r="H27" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I27" s="10">
-        <v>0</v>
+        <v>831600</v>
       </c>
       <c r="J27" s="10">
-        <v>0</v>
+        <v>189000</v>
       </c>
     </row>
     <row r="28" ht="16" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C28" s="10">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D28" s="10">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="E28" s="10">
-        <v>0</v>
+        <v>480000</v>
       </c>
       <c r="F28" s="10">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="G28" s="10">
-        <v>0</v>
+        <v>201600</v>
       </c>
       <c r="H28" s="10">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="I28" s="10">
-        <v>0</v>
+        <v>153600</v>
       </c>
       <c r="J28" s="10">
-        <v>0</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="29" ht="16" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C29" s="10">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="D29" s="10">
-        <v>12000</v>
+        <v>2600</v>
       </c>
       <c r="E29" s="10">
-        <v>0</v>
+        <v>819000</v>
       </c>
       <c r="F29" s="10">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G29" s="10">
-        <v>0</v>
+        <v>409500</v>
       </c>
       <c r="H29" s="10">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I29" s="10">
-        <v>0</v>
+        <v>327600</v>
       </c>
       <c r="J29" s="10">
-        <v>0</v>
+        <v>81900</v>
       </c>
     </row>
     <row r="30" ht="16" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C30" s="10">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="D30" s="10">
         <v>2600</v>
       </c>
       <c r="E30" s="10">
-        <v>0</v>
+        <v>624000</v>
       </c>
       <c r="F30" s="10">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G30" s="10">
-        <v>0</v>
+        <v>249600</v>
       </c>
       <c r="H30" s="10">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I30" s="10">
-        <v>0</v>
+        <v>187200</v>
       </c>
       <c r="J30" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" ht="20" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+        <v>62400</v>
+      </c>
+    </row>
+    <row r="31" ht="16" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>10</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="11">
-        <v>286</v>
-      </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11">
-        <v>4158000</v>
-      </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11">
-        <v>2258100</v>
-      </c>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11">
-        <v>1842300</v>
-      </c>
-      <c r="J31" s="11">
-        <v>415800</v>
-      </c>
-    </row>
-    <row r="32" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="16" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="12" t="s">
+      <c r="C31" s="10">
+        <v>60</v>
+      </c>
+      <c r="D31" s="10">
+        <v>8900</v>
+      </c>
+      <c r="E31" s="10">
+        <v>534000</v>
+      </c>
+      <c r="F31" s="10">
+        <v>55</v>
+      </c>
+      <c r="G31" s="10">
+        <v>293700</v>
+      </c>
+      <c r="H31" s="10">
+        <v>45</v>
+      </c>
+      <c r="I31" s="10">
+        <v>240300</v>
+      </c>
+      <c r="J31" s="10">
+        <v>53400</v>
+      </c>
+    </row>
+    <row r="32" ht="20" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="11">
+        <v>2858</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11">
+        <v>30161000</v>
+      </c>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11">
+        <v>16286300</v>
+      </c>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11">
+        <v>13270200</v>
+      </c>
+      <c r="J32" s="11">
+        <v>3016100</v>
+      </c>
+    </row>
+    <row r="33" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="16" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="34" ht="20" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+    <row r="35" ht="20" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B35" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C35" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D35" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E35" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F35" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="G35" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H34" s="8" t="s">
+      <c r="H35" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I34" s="8" t="s">
+      <c r="I35" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J34" s="8" t="s">
+      <c r="J35" s="8" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="35" ht="16" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
-        <v>1</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="10">
-        <v>0</v>
-      </c>
-      <c r="D35" s="10">
-        <v>15000</v>
-      </c>
-      <c r="E35" s="10">
-        <v>0</v>
-      </c>
-      <c r="F35" s="10">
-        <v>52</v>
-      </c>
-      <c r="G35" s="10">
-        <v>0</v>
-      </c>
-      <c r="H35" s="10">
-        <v>42</v>
-      </c>
-      <c r="I35" s="10">
-        <v>0</v>
-      </c>
-      <c r="J35" s="10">
-        <v>0</v>
       </c>
     </row>
     <row r="36" ht="16" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C36" s="10">
-        <v>0</v>
+        <v>429</v>
       </c>
       <c r="D36" s="10">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="E36" s="10">
-        <v>0</v>
+        <v>6435000</v>
       </c>
       <c r="F36" s="10">
+        <v>55</v>
+      </c>
+      <c r="G36" s="10">
+        <v>3539250</v>
+      </c>
+      <c r="H36" s="10">
         <v>45</v>
       </c>
-      <c r="G36" s="10">
-        <v>0</v>
-      </c>
-      <c r="H36" s="10">
-        <v>35</v>
-      </c>
       <c r="I36" s="10">
-        <v>0</v>
+        <v>2895750</v>
       </c>
       <c r="J36" s="10">
-        <v>0</v>
+        <v>643500</v>
       </c>
     </row>
     <row r="37" ht="16" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C37" s="10">
-        <v>0</v>
+        <v>780</v>
       </c>
       <c r="D37" s="10">
-        <v>13000</v>
+        <v>2900</v>
       </c>
       <c r="E37" s="10">
-        <v>0</v>
+        <v>2262000</v>
       </c>
       <c r="F37" s="10">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G37" s="10">
-        <v>0</v>
+        <v>1017900</v>
       </c>
       <c r="H37" s="10">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I37" s="10">
-        <v>0</v>
+        <v>791700</v>
       </c>
       <c r="J37" s="10">
-        <v>0</v>
+        <v>226200</v>
       </c>
     </row>
     <row r="38" ht="16" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C38" s="10">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="D38" s="10">
-        <v>2900</v>
+        <v>9000</v>
       </c>
       <c r="E38" s="10">
-        <v>0</v>
+        <v>1710000</v>
       </c>
       <c r="F38" s="10">
+        <v>55</v>
+      </c>
+      <c r="G38" s="10">
+        <v>940500</v>
+      </c>
+      <c r="H38" s="10">
         <v>45</v>
       </c>
-      <c r="G38" s="10">
-        <v>0</v>
-      </c>
-      <c r="H38" s="10">
-        <v>35</v>
-      </c>
       <c r="I38" s="10">
-        <v>0</v>
+        <v>769500</v>
       </c>
       <c r="J38" s="10">
-        <v>0</v>
+        <v>171000</v>
       </c>
     </row>
     <row r="39" ht="16" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C39" s="10">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="D39" s="10">
-        <v>24000</v>
+        <v>14700</v>
       </c>
       <c r="E39" s="10">
-        <v>0</v>
+        <v>2646000</v>
       </c>
       <c r="F39" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G39" s="10">
-        <v>0</v>
+        <v>1428840</v>
       </c>
       <c r="H39" s="10">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I39" s="10">
-        <v>0</v>
+        <v>1164240</v>
       </c>
       <c r="J39" s="10">
-        <v>0</v>
+        <v>264600</v>
       </c>
     </row>
     <row r="40" ht="16" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C40" s="10">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D40" s="10">
-        <v>9000</v>
+        <v>6926</v>
       </c>
       <c r="E40" s="10">
-        <v>0</v>
+        <v>138520</v>
       </c>
       <c r="F40" s="10">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="G40" s="10">
-        <v>0</v>
+        <v>55408</v>
       </c>
       <c r="H40" s="10">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I40" s="10">
-        <v>0</v>
+        <v>41556</v>
       </c>
       <c r="J40" s="10">
-        <v>0</v>
+        <v>13852</v>
       </c>
     </row>
     <row r="41" ht="16" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C41" s="10">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="D41" s="10">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="E41" s="10">
-        <v>0</v>
+        <v>1152000</v>
       </c>
       <c r="F41" s="10">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="G41" s="10">
-        <v>0</v>
+        <v>483840</v>
       </c>
       <c r="H41" s="10">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="I41" s="10">
-        <v>0</v>
+        <v>368640</v>
       </c>
       <c r="J41" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" ht="16" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="9">
-        <v>8</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C42" s="10">
-        <v>0</v>
-      </c>
-      <c r="D42" s="10">
-        <v>14700</v>
-      </c>
-      <c r="E42" s="10">
-        <v>0</v>
-      </c>
-      <c r="F42" s="10">
-        <v>54</v>
-      </c>
-      <c r="G42" s="10">
-        <v>0</v>
-      </c>
-      <c r="H42" s="10">
-        <v>44</v>
-      </c>
-      <c r="I42" s="10">
-        <v>0</v>
-      </c>
-      <c r="J42" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" ht="16" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="9">
-        <v>9</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C43" s="10">
-        <v>0</v>
-      </c>
-      <c r="D43" s="10">
-        <v>6926</v>
-      </c>
-      <c r="E43" s="10">
-        <v>0</v>
-      </c>
-      <c r="F43" s="10">
-        <v>40</v>
-      </c>
-      <c r="G43" s="10">
-        <v>0</v>
-      </c>
-      <c r="H43" s="10">
-        <v>30</v>
-      </c>
-      <c r="I43" s="10">
-        <v>0</v>
-      </c>
-      <c r="J43" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" ht="16" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="9">
-        <v>10</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" s="10">
-        <v>0</v>
-      </c>
-      <c r="D44" s="10">
-        <v>12000</v>
-      </c>
-      <c r="E44" s="10">
-        <v>0</v>
-      </c>
-      <c r="F44" s="10">
-        <v>42</v>
-      </c>
-      <c r="G44" s="10">
-        <v>0</v>
-      </c>
-      <c r="H44" s="10">
-        <v>32</v>
-      </c>
-      <c r="I44" s="10">
-        <v>0</v>
-      </c>
-      <c r="J44" s="10">
-        <v>0</v>
-      </c>
-    </row>
+        <v>115200</v>
+      </c>
+    </row>
+    <row r="42" ht="20" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c r="C42" s="11">
+        <v>1695</v>
+      </c>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11">
+        <v>14343520</v>
+      </c>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11">
+        <v>7465738</v>
+      </c>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11">
+        <v>6031386</v>
+      </c>
+      <c r="J42" s="11">
+        <v>1434352</v>
+      </c>
+    </row>
+    <row r="43" ht="20" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="11">
+        <v>61103</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11">
+        <v>540728462</v>
+      </c>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11">
+        <v>270611849.8</v>
+      </c>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11">
+        <v>216539003.6</v>
+      </c>
+      <c r="J43" s="11">
+        <v>54072846.20000002</v>
+      </c>
+    </row>
+    <row r="44" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="45" ht="16" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="9">
-        <v>11</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C45" s="10">
-        <v>0</v>
-      </c>
-      <c r="D45" s="10">
-        <v>8000</v>
-      </c>
-      <c r="E45" s="10">
-        <v>0</v>
-      </c>
-      <c r="F45" s="10">
-        <v>42</v>
-      </c>
-      <c r="G45" s="10">
-        <v>0</v>
-      </c>
-      <c r="H45" s="10">
-        <v>32</v>
-      </c>
-      <c r="I45" s="10">
-        <v>0</v>
-      </c>
-      <c r="J45" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" ht="16" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="9">
-        <v>12</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C46" s="10">
-        <v>0</v>
-      </c>
-      <c r="D46" s="10">
-        <v>10800</v>
-      </c>
-      <c r="E46" s="10">
-        <v>0</v>
-      </c>
-      <c r="F46" s="10">
-        <v>50</v>
-      </c>
-      <c r="G46" s="10">
-        <v>0</v>
-      </c>
-      <c r="H46" s="10">
-        <v>40</v>
-      </c>
-      <c r="I46" s="10">
-        <v>0</v>
-      </c>
-      <c r="J46" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" ht="20" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="11">
-        <v>0</v>
-      </c>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11">
-        <v>0</v>
-      </c>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11">
-        <v>0</v>
-      </c>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11">
-        <v>0</v>
-      </c>
-      <c r="J47" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" ht="20" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="11">
-        <v>6024</v>
-      </c>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11">
-        <v>35532244</v>
-      </c>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11">
-        <v>16294537.6</v>
-      </c>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11">
-        <v>12741313.2</v>
-      </c>
-      <c r="J48" s="11">
-        <v>3553224.4000000004</v>
-      </c>
-    </row>
-    <row r="49" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="16" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
+      <c r="A45" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.45" bottom="0.45" header="0.2" footer="0.2"/>
